--- a/graph_generation/results/hermes_llama2/level_8/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_8/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>prompt</t>
   </si>
@@ -54,21 +54,21 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 4 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 4 0 0 1 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 2 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
+ H 0 0 0 5 0 0 0 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 3 0 0 3 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0 4
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
@@ -97,26 +97,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- F 0 2 0 0 5 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 2 0 0 3 0 2 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 1 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 5 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 2 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 3 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -138,22 +138,24 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from A to P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node N? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 4 0 0 0 0 0 0 0 0 0 0
- D 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 2 0 0 4 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 5 0 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 4 0 0
- I 0 0 0 0 0 0 0 3 0 5 0 0 0 0
- J 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 3 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 4 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 5 0
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 3 0 0 2 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 3 0 0 0 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ J 0 0 0 0 0 2 0 0 0 0 2 0 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0
     </t>
   </si>
   <si>
@@ -181,26 +183,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 1 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 1 0 0 5 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -222,24 +224,23 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from A to P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 2 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0
+ I 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 1 0 4 0 3 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ O 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
     </t>
   </si>
   <si>
@@ -267,22 +268,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- F 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 3 0 0 3 0 0 0 0 5 0 0 0 0 0
- H 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 5 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ A 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 3 0 0 3 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 5 0 0 4 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 0 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
  M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0
     </t>
   </si>
   <si>
@@ -312,20 +313,20 @@
    A B C D E F G H I J K L M N O P
  A 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0
  B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 5 0 0 5 0 0 0 0 0 0 0 0 0
  D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 2 0 0 3 0 2 0 0 3 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 4 0 0 4 0 1 0 0 5 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 5 0 0 1 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
     </t>
   </si>
   <si>
@@ -353,26 +354,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 4 0 0 0 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 0 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 5 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 4 0 0 3 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -394,27 +395,28 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from A to P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- F 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 1 0 0 3 0
- K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 4 0 0 1 0 1 0 0 3 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -436,52 +438,45 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from A to P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 4 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 5 0 0 5 0 2 0 0 0 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 4 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 3 0 0 3 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ I 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
     </t>
   </si>
   <si>
     <t>No possible path from A to P</t>
   </si>
   <si>
-    <t>No possible path from A to N</t>
-  </si>
-  <si>
     <t>No possible path from A to O</t>
   </si>
   <si>
     <t>The least cost path from node A to node P is not possible as there is no path between these two nodes.</t>
   </si>
   <si>
-    <t>The least cost path from node A to node N is A -&gt; H -&gt; M -&gt; N. The sequence of nodes is A, H, M, and N. The total cost of this path is 4 + 4 + 4 + 5 = 17.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node O is A -&gt; J -&gt; L -&gt; O. The sequence of nodes is A -&gt; J -&gt; L -&gt; O. The total cost of this path is 3 + 1 + 2 = 6.</t>
+    <t>The least cost path from node A to node O is A -&gt; J -&gt; L -&gt; N -&gt; O. The cost of this path is 2 + 2 + 5 + 5 = 14.</t>
+  </si>
+  <si>
+    <t>Wrong</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
-    <t>Wrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -512,29 +507,32 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
 Solution: No possible path from A to Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node U? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 3 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 5 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 2 0 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3
- Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 3 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 2 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -571,31 +569,31 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 5 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ A 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 5 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 4 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -632,31 +630,31 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 4 0 0 0 3 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 2 0 0 0 2 0 2 0 0 0 3 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 2 0 0 0
+ C 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 2 0 0 0 3 0 5 0 0 0 5 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 0 0
  R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 3 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 4 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0
     </t>
   </si>
   <si>
@@ -693,31 +691,31 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 4 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0 4 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0 2 0
+ F 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 3 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 4 0 0 0 5 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 4 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
  X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
     </t>
   </si>
   <si>
@@ -754,31 +752,31 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 4 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 3 0 0 0 4 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -815,35 +813,35 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 4 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 3 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 3 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 4 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -874,32 +872,33 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
 Solution: No possible path from A to Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node X? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 2 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+What is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 4 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -936,35 +935,35 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 4 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 4 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 3 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -995,37 +994,36 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
 Solution: No possible path from A to Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 4 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 2 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 1 0 0 0 2 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1056,71 +1054,72 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
 Solution: No possible path from A to Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- F 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 3 0 0 0 2 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 3 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>No possible path from A to U</t>
+What is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 4 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 2 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 5 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t>No possible path from A to X</t>
   </si>
   <si>
     <t>No possible path from A to Y</t>
   </si>
   <si>
-    <t>No possible path from A to X</t>
-  </si>
-  <si>
-    <t>No possible path from A to T</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node U is A -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U. The cost of this path is 3 + 2 + 1 + 3 + 1 + 4 + 1 + 2 + 3 + 5 = 25.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 2 + 4 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + </t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node Y is A -&gt; C -&gt; D -&gt; E -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 3 + 5 + 3 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 = 36.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node Y is A -&gt; C -&gt; D -&gt; E -&gt; Y with a total cost of 3.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node Y is A -&gt; C -&gt; G -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y with a total cost of 15.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 2 + 4 + 1 + 2 + 1 + 3 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 +</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node X is A -&gt; C -&gt; G -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X with a total cost of 1 + 1 + 5 + 1 + 4 + 3 + 5 + 5 + 1 + 5 + 5 = 38.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node Y is A -&gt; C -&gt; G -&gt; H -&gt; I -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 0 + 1 + 0 + 4 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 15.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 2 + 3 + 1 + 1 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + </t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node T is A -&gt; G -&gt; L -&gt; P -&gt; T with a total cost of 3 + 2 + 1 + 4 = 10.</t>
+    <t>The least cost path from node A to node X is A -&gt; C -&gt; D -&gt; E -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X.
+The sequence of nodes is A, C, D, E, L, M, N, O, P, Q, R, S, T, U, V, W, and X.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; C -&gt; D -&gt; E -&gt; Y with a total cost of 3 + 5 + 1 + 1 = 10.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; C -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 2 + 5 + 0 + 3 + 0 + 3 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 17.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; C -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 3 + 1 + 3 + 5 + 1 + 4 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 22.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; D -&gt; E -&gt; M -&gt; Y with a total cost of 2 + 4 + 0 + 0 = 6.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; C -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 3 + 2 + 0 + 1 + 4 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 10.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; C -&gt; E -&gt; M -&gt; N -&gt; O -&gt; P -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 3 + 2 + 3 + 1 + 4 + 3 + 4 + 3 + 4 + 4 + 4 = 38.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The least cost path from node A to node Y is A -&gt; C -&gt; G -&gt; H -&gt; I -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y. The cost of this path is 3 + 3 + 3 + 5 + 3 + 4 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + </t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node X is A -&gt; C -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X with a total cost of 10.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y.
+The cost of this path is 2 + 2 + 3 + 5 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
@@ -1152,37 +1151,37 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node T to node L? Return the sequence of nodes in response.
+What is the least cost path from node F to node V? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 3 0 0 0 0 0 0 0
- D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- E 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0
- K 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 4 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 5 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 4 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 4 3 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5
+ G 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 3 0 0 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0 0 0 0 1 0 0
+ O 0 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ R 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ S 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 3
+ T 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node L to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W
@@ -1211,35 +1210,37 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node K to node V? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0
- D 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0
- H 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- K 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 1 4 0 0 0 0
- P 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- R 0 5 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0
- W 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node V to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 2 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 3 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 5 0 0 0 0 0
+ D 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 3 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0
+ L 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0 3 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node L to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W
@@ -1268,32 +1269,33 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node U to node C? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- C 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- E 0 4 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0
- H 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- I 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- K 0 4 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- O 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- Q 2 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0
- S 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 3 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- W 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node B to node R? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1
+ I 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 5 3 0 0 0
+ L 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0
+ O 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 3 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ T 0 0 2 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ V 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0 0 2 0 0 0 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
     </t>
   </si>
   <si>
@@ -1326,33 +1328,33 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node W to node X? Return the sequence of nodes in response.
+What is the least cost path from node O to node V? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 1 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 2 3 0 0 0 0 0 0 0 0 0 0 2 0
+ E 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
  F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 4 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 2 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 5
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0 0
- T 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 1 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 4 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ H 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ I 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 1 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0 0 0 0 2 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ V 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1385,33 +1387,33 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node Y to node C? Return the sequence of nodes in response.
+What is the least cost path from node I to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- S 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0
- W 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0
- X 5 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 1 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ E 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ L 0 0 0 4 0 0 0 0 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ Q 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0
+ R 5 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2
+ X 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1444,33 +1446,33 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node U to node K? Return the sequence of nodes in response.
+What is the least cost path from node B to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ A 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
  B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- H 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ D 0 2 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 2 0
+ G 0 0 3 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ H 0 0 0 0 0 1 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ K 0 0 0 0 2 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- O 4 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5
- R 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0
- S 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- W 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 3 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
+ T 0 0 3 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ W 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0
     </t>
   </si>
   <si>
@@ -1503,37 +1505,37 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node M to node H? Return the sequence of nodes in response.
+What is the least cost path from node H to node I? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- C 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 2 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 5 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0 0 0 0
- J 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0 0 0
- N 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0
- P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 0
- U 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0
- W 1 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- Y 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ B 0 0 0 0 0 0 0 0 0 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ L 5 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ P 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ T 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0
+ U 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ V 1 0 0 0 0 0 3 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 3 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node L to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W
@@ -1562,33 +1564,32 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node C to node H? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0
- E 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- G 4 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
- L 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- N 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- O 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 2 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 5 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node U to node I? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0
+ B 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ F 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ M 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ O 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 3 0 0
+ P 0 0 0 0 0 0 1 0 0 0 0 0 0 1 3 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 0
+ R 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 4 0
+ U 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ V 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1621,37 +1622,37 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node E to node L? Return the sequence of nodes in response.
+What is the least cost path from node X to node D? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 5 0
- D 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- L 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- N 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- P 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- S 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 5 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 4 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 3 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- X 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- Y 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0
+ B 0 0 1 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ K 0 0 0 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ P 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 4 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ V 5 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 1 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node L to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W
@@ -1680,94 +1681,92 @@
  W 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from L to J
  Given these examples, answer the following quesiton.
-What is the least cost path from node X to node A? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- E 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 3 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 1 0
- G 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0
- K 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 3
- S 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 2 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>No possible path from T to L</t>
-  </si>
-  <si>
-    <t>No possible path from K to V</t>
-  </si>
-  <si>
-    <t>No possible path from U to C</t>
-  </si>
-  <si>
-    <t>No possible path from W to X</t>
-  </si>
-  <si>
-    <t>No possible path from Y to C</t>
-  </si>
-  <si>
-    <t>No possible path from U to K</t>
-  </si>
-  <si>
-    <t>No possible path from M to H</t>
-  </si>
-  <si>
-    <t>No possible path from C to H</t>
-  </si>
-  <si>
-    <t>No possible path from E to L</t>
-  </si>
-  <si>
-    <t>No possible path from X to A</t>
-  </si>
-  <si>
-    <t>The least cost path from node T to node L is T -&gt; L with a cost of 5.</t>
-  </si>
-  <si>
-    <t>The least cost path from node K to node V is K -&gt; L -&gt; I -&gt; J -&gt; V. The sequence of nodes is KLIJV. The cost of this path is 2 + 2 + 3 + 0 = 7.</t>
-  </si>
-  <si>
-    <t>The least cost path from node U to node C is U -&gt; L -&gt; J -&gt; I -&gt; C. The sequence of nodes is U, L, J, I, and C. The cost of this path is 0 + 0 + 4 + 1 = 5.</t>
-  </si>
-  <si>
-    <t>The least cost path from node W to node X is W -&gt; U -&gt; S -&gt; R -&gt; P -&gt; O -&gt; N -&gt; M -&gt; L -&gt; I -&gt; H -&gt; G -&gt; F -&gt; E -&gt; D -&gt; C -&gt; B -&gt; A -&gt; Y.
-The sequence of nodes is: W, U, S, R, P, O, N, M, L, I, H, G, F, E, D, C, B, A, Y.</t>
-  </si>
-  <si>
-    <t>The least cost path from node Y to node C is Y -&gt; X -&gt; V -&gt; W -&gt; R -&gt; S -&gt; T -&gt; I -&gt; H -&gt; G -&gt; F -&gt; E -&gt; D -&gt; C. The sequence of nodes is Y, X, V, W, R, S, T, I, H, G, F, E, D, and C. The cost of this path is 2 + 2 + 4 + 0 + 5 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 17.</t>
-  </si>
-  <si>
-    <t>The least cost path from node U to node K is U -&gt; L -&gt; J -&gt; I -&gt; H -&gt; G -&gt; K. The sequence of nodes is U, L, J, I, H, G, and K. The total cost is 0 + 3 + 3 + 1 + 5 + 0 = 12.</t>
-  </si>
-  <si>
-    <t>The least cost path from node M to node H is M -&gt; L -&gt; J -&gt; I -&gt; H. The sequence of nodes is M, L, J, I, and H. The cost of this path is 4 + 3 + 2 + 4 = 13.</t>
-  </si>
-  <si>
-    <t>The least cost path from node C to node H is C -&gt; E -&gt; I -&gt; H. The sequence of nodes is C, E, I, and H.</t>
-  </si>
-  <si>
-    <t>The least cost path from node E to node L is E -&gt; G -&gt; H -&gt; L with a total cost of 5.</t>
-  </si>
-  <si>
-    <t>The least cost path from node X to node A is X -&gt; L -&gt; J -&gt; I -&gt; H -&gt; A with a total cost of 4.</t>
+What is the least cost path from node F to node A? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 1 0 0 0 0 0
+ C 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0
+ E 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0 0
+ N 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 5 0 0 0 0 0
+ S 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 1 0 0 0 0 0 0 3 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ W 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ X 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 3
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>No possible path from F to V</t>
+  </si>
+  <si>
+    <t>No possible path from V to X</t>
+  </si>
+  <si>
+    <t>No possible path from B to R</t>
+  </si>
+  <si>
+    <t>No possible path from O to V</t>
+  </si>
+  <si>
+    <t>No possible path from I to T</t>
+  </si>
+  <si>
+    <t>No possible path from B to P</t>
+  </si>
+  <si>
+    <t>No possible path from H to I</t>
+  </si>
+  <si>
+    <t>No possible path from U to I</t>
+  </si>
+  <si>
+    <t>No possible path from X to D</t>
+  </si>
+  <si>
+    <t>No possible path from F to A</t>
+  </si>
+  <si>
+    <t>The least cost path from node F to node V is F -&gt; I -&gt; L -&gt; J -&gt; V. The sequence of nodes is F, I, L, J, and V.</t>
+  </si>
+  <si>
+    <t>The least cost path from node V to node X is V -&gt; U -&gt; T -&gt; S -&gt; R -&gt; I -&gt; H -&gt; G -&gt; F -&gt; E -&gt; D -&gt; X. The cost of this path is 3 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 3.</t>
+  </si>
+  <si>
+    <t>The least cost path from node B to node R is B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y.
+The sequence of nodes is B, F, G, H, I, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y.</t>
+  </si>
+  <si>
+    <t>The least cost path from node O to node V is O -&gt; L -&gt; J -&gt; I -&gt; H -&gt; G -&gt; V. The sequence of nodes is O, L, J, I, H, G, and V.</t>
+  </si>
+  <si>
+    <t>The least cost path from node I to node T is I -&gt; L -&gt; J -&gt; K -&gt; T. The sequence of nodes is I, L, J, K, and T. The total cost is 0 + 0 + 0 + 4 + 0 = 4.</t>
+  </si>
+  <si>
+    <t>The least cost path from node B to node P is B -&gt; C -&gt; D -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P. The cost of this path is 2 + 3 + 3 + 2 + 0 + 0 + 0 + 0 + 0 + 0 = 13.</t>
+  </si>
+  <si>
+    <t>The least cost path from node H to node I is H -&gt; I with a cost of 0.</t>
+  </si>
+  <si>
+    <t>The least cost path from node U to node I is U -&gt; L -&gt; J -&gt; I. The sequence of nodes is ULIJ. The cost of this path is 2 + 3 + 0 + 0 = 5.</t>
+  </si>
+  <si>
+    <t>The least cost path from node F to node A is F -&gt; I -&gt; L -&gt; M -&gt; A. The sequence of nodes is F, I, L, M, and A.</t>
   </si>
 </sst>
 </file>
@@ -2153,10 +2152,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2167,10 +2166,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2178,13 +2177,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2195,10 +2194,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2206,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2223,10 +2222,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2237,10 +2236,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2251,10 +2250,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2262,13 +2261,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2276,13 +2275,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2314,142 +2307,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2481,142 +2474,136 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
